--- a/Service.Catalog/wwwroot/seed/06_CAT_MAQUILADORES.xlsx
+++ b/Service.Catalog/wwwroot/seed/06_CAT_MAQUILADORES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-71\source\repos\LaboratorioRamos\API\Service.Catalog\wwwroot\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE627990-E393-4B80-95E0-1A568A482AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8418EBD-9E45-4FEA-B44F-738A07E92D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>UPC</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Q  ARANA</t>
   </si>
   <si>
-    <t>ORTIN</t>
-  </si>
-  <si>
     <t>ORTHIN LABORATORIO</t>
   </si>
   <si>
@@ -103,6 +100,15 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>ORTHIN</t>
+  </si>
+  <si>
+    <t>CEN</t>
+  </si>
+  <si>
+    <t>DM</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1040,13 +1046,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,10 +1126,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,10 +1148,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,21 +1159,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
